--- a/dataset/dataset_lstm_rnn.xlsx
+++ b/dataset/dataset_lstm_rnn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Belajar Python\dataset\dataset tesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bahan Ajar Big Data\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DD713A-3593-437B-864F-9923BF9E7AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474AE290-BD5F-461A-A150-2B0C4252D2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{3EE07DBB-3E42-4D7F-94EA-34AC57108B4F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3EE07DBB-3E42-4D7F-94EA-34AC57108B4F}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="2" r:id="rId1"/>
@@ -1743,15 +1743,15 @@
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="18" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>36922</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>36950</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>36981</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>37011</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>37042</v>
       </c>
@@ -1871,7 +1871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>37072</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>37103</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>37134</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>37164</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>37195</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>37225</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>37256</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>37287</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>37315</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>37346</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>37376</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>37407</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
         <v>37437</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>37468</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>37499</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>3324</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>37529</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>2826</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>37560</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>3724</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>37590</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>37621</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>37652</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>37680</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
         <v>37711</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
         <v>37741</v>
       </c>
@@ -2331,7 +2331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>37772</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
         <v>37802</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
         <v>37833</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
         <v>37864</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
         <v>37894</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>37925</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
         <v>37955</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
         <v>37986</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
         <v>38017</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
         <v>38046</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
         <v>38077</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
         <v>38107</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
         <v>38138</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
         <v>38168</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
         <v>38199</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
         <v>38230</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>38260</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>3659</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>38291</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
         <v>38321</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
         <v>38352</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>38383</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>38411</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
         <v>38442</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
         <v>38472</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>38503</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
         <v>38533</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>38564</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>38595</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
         <v>38625</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
         <v>38656</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
         <v>38686</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
         <v>38717</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
         <v>38748</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
         <v>38776</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
         <v>38807</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
         <v>38837</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
         <v>38868</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
         <v>38898</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>38929</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
         <v>38960</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
         <v>38990</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>7640</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
         <v>39021</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>8662</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
         <v>39051</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
         <v>39082</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
         <v>39113</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
         <v>39141</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
         <v>39172</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
         <v>39202</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
         <v>39233</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
         <v>39263</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
         <v>39294</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>39325</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>39355</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>2377</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>39386</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>39416</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>39447</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>39478</v>
       </c>
@@ -3471,7 +3471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
         <v>39507</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
         <v>39538</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
         <v>39568</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>39599</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>39629</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>39660</v>
       </c>
@@ -3591,7 +3591,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>39691</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>39721</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>39752</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>39782</v>
       </c>
@@ -3671,7 +3671,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>39813</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>39844</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>39872</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>39903</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>39933</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>39964</v>
       </c>
@@ -3791,7 +3791,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>39994</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>40025</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>40056</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>40086</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>4372</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="12">
         <v>40117</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="12">
         <v>40147</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="12">
         <v>40178</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="12">
         <v>40209</v>
       </c>
@@ -3951,7 +3951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="12">
         <v>40237</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="12">
         <v>40268</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="12">
         <v>40298</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="12">
         <v>40329</v>
       </c>
@@ -4031,7 +4031,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="12">
         <v>40359</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="12">
         <v>40390</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="12">
         <v>40421</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="12">
         <v>40451</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="12">
         <v>40482</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="12">
         <v>40512</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="12">
         <v>40543</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="12">
         <v>40574</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="12">
         <v>40602</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="12">
         <v>40633</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="12">
         <v>40663</v>
       </c>
@@ -4251,7 +4251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="12">
         <v>40694</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="12">
         <v>40724</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="12">
         <v>40755</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="12">
         <v>40786</v>
       </c>
@@ -4331,7 +4331,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="12">
         <v>40816</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>5726</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="12">
         <v>40847</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="12">
         <v>40877</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="12">
         <v>40908</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="12">
         <v>40939</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="12">
         <v>40968</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="12">
         <v>40999</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="12">
         <v>41029</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="12">
         <v>41060</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="12">
         <v>41090</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="12">
         <v>41121</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="12">
         <v>41152</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="12">
         <v>41182</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>5141</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="12">
         <v>41213</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="12">
         <v>41243</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="12">
         <v>41274</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="12">
         <v>41305</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="12">
         <v>41333</v>
       </c>
@@ -4691,7 +4691,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="12">
         <v>41364</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="12">
         <v>41394</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="12">
         <v>41425</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="12">
         <v>41455</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="12">
         <v>41486</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="12">
         <v>41517</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="12">
         <v>41547</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="12">
         <v>41578</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="12">
         <v>41608</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="12">
         <v>41639</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="12">
         <v>41670</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="12">
         <v>41698</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="12">
         <v>41729</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="12">
         <v>41759</v>
       </c>
@@ -4971,7 +4971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="12">
         <v>41790</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="12">
         <v>41820</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="12">
         <v>41851</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="12">
         <v>41882</v>
       </c>
@@ -5051,7 +5051,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="12">
         <v>41912</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="12">
         <v>41943</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>4306</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="12">
         <v>41973</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="12">
         <v>42004</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="12">
         <v>42035</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="12">
         <v>42063</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="12">
         <v>42094</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="12">
         <v>42124</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="12">
         <v>42155</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="12">
         <v>42185</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="12">
         <v>42216</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="12">
         <v>42247</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>2776</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="12">
         <v>42277</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>14181</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="12">
         <v>42308</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>14416</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="12">
         <v>42338</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="12">
         <v>42369</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="12">
         <v>42400</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="12">
         <v>42429</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="12">
         <v>42460</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="12">
         <v>42490</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="12">
         <v>42521</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="12">
         <v>42551</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="12">
         <v>42582</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="12">
         <v>42613</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="12">
         <v>42643</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="12">
         <v>42674</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="12">
         <v>42704</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="12">
         <v>42735</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="12">
         <v>42766</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="12">
         <v>42794</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="12">
         <v>42825</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="12">
         <v>42855</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="12">
         <v>42886</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="12">
         <v>42916</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="12">
         <v>42947</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="12">
         <v>42978</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="12">
         <v>43008</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="12">
         <v>43039</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="12">
         <v>43069</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="12">
         <v>43100</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="12">
         <v>43131</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="12">
         <v>43159</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="12">
         <v>43190</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="12">
         <v>43220</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="12">
         <v>43251</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="12">
         <v>43281</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="12">
         <v>43312</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="12">
         <v>43343</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="12">
         <v>43373</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="12">
         <v>43404</v>
       </c>
@@ -6051,7 +6051,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="12">
         <v>43434</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="12">
         <v>43465</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="12">
         <v>43496</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="12">
         <v>43524</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="12">
         <v>43555</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="12">
         <v>43585</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="12">
         <v>43616</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="12">
         <v>43646</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="12">
         <v>43677</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="12">
         <v>43708</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="12">
         <v>43738</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="12">
         <v>43769</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>3913</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="12">
         <v>43799</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="12">
         <v>43830</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="13">
         <v>43861</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="12">
         <v>43890</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="12">
         <v>43921</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="12">
         <v>43951</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="12">
         <v>43982</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="12">
         <v>44012</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="12">
         <v>44043</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="12">
         <v>44074</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="12">
         <v>44104</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="12">
         <v>44135</v>
       </c>
@@ -6531,7 +6531,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="12">
         <v>44165</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="12">
         <v>44196</v>
       </c>
@@ -6585,13 +6585,13 @@
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>36922</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>36950</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>36981</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>37011</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>37042</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>37072</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>37103</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>37134</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>4900</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>37164</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>3122</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>37195</v>
       </c>
@@ -6778,7 +6778,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>37225</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>37256</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>37287</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>37315</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>37346</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>37376</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>37407</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>37437</v>
       </c>
@@ -6914,7 +6914,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>37468</v>
       </c>
@@ -6931,7 +6931,7 @@
         <v>7302</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>37499</v>
       </c>
@@ -6948,7 +6948,7 @@
         <v>42789</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>37529</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>31356</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>37560</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>31024</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>37590</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>3548</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>37621</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>37652</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>37680</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>37711</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>37741</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>37772</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>37802</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>9615</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>37833</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>5118</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>37864</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>16225</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>37894</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>15763</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>37925</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>6409</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>37955</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>37986</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>38017</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38046</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38077</v>
       </c>
@@ -7271,7 +7271,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>38107</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>38138</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>3655</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>38168</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>8802</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>38199</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>38230</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>33824</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>38260</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>23012</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>38291</v>
       </c>
@@ -7390,7 +7390,7 @@
         <v>24181</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>38321</v>
       </c>
@@ -7407,7 +7407,7 @@
         <v>5096</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>38352</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>38383</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>5470</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>38411</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>10436</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>38442</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>7676</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>38472</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>38503</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>38533</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>4867</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>38564</v>
       </c>
@@ -7543,7 +7543,7 @@
         <v>3993</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>38595</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>16396</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>38625</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>15872</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>38656</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>38686</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>38717</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>38748</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>38776</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>2595</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>38807</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>3346</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>38837</v>
       </c>
@@ -7696,7 +7696,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>38868</v>
       </c>
@@ -7713,7 +7713,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>38898</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>38929</v>
       </c>
@@ -7747,7 +7747,7 @@
         <v>10991</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>38960</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>34856</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>38990</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>36036</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>39021</v>
       </c>
@@ -7798,7 +7798,7 @@
         <v>48193</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>39051</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>10718</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>39082</v>
       </c>
@@ -7832,7 +7832,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>39113</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>39141</v>
       </c>
@@ -7866,7 +7866,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>39172</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>39202</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>39233</v>
       </c>
@@ -7917,7 +7917,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>39263</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>39294</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>3341</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>39325</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>8871</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>39355</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>12929</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>39386</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>7605</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>39416</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>39447</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>39478</v>
       </c>
@@ -8053,7 +8053,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>39507</v>
       </c>
@@ -8070,7 +8070,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>39538</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>39568</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>39599</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>4691</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>39629</v>
       </c>
@@ -8138,7 +8138,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>39660</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>39691</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>10237</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>39721</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>9767</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>39752</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>39782</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>39813</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>39844</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>39872</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>39903</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>39933</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>39964</v>
       </c>
@@ -8325,7 +8325,7 @@
         <v>3858</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>39994</v>
       </c>
@@ -8342,7 +8342,7 @@
         <v>5997</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>40025</v>
       </c>
@@ -8359,7 +8359,7 @@
         <v>12029</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>40056</v>
       </c>
@@ -8376,7 +8376,7 @@
         <v>26032</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>40086</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>36401</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>40117</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>7234</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>40147</v>
       </c>
@@ -8427,7 +8427,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>40178</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>40209</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>40237</v>
       </c>
@@ -8478,7 +8478,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>40268</v>
       </c>
@@ -8495,7 +8495,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>40298</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>40329</v>
       </c>
@@ -8529,7 +8529,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>40359</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>40390</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>40421</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>3452</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>40451</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>40482</v>
       </c>
@@ -8614,7 +8614,7 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>40512</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>40543</v>
       </c>
@@ -8648,7 +8648,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>40574</v>
       </c>
@@ -8665,7 +8665,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>40602</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>40633</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>40663</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>40694</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>40724</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>3976</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>40755</v>
       </c>
@@ -8767,7 +8767,7 @@
         <v>8700</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>40786</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>18806</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>40816</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>17555</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>40847</v>
       </c>
@@ -8818,7 +8818,7 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>40877</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>40908</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40939</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>40968</v>
       </c>
@@ -8886,7 +8886,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>40999</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>41029</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>41060</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>41090</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>7937</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>41121</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>5409</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>41152</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>16861</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>41182</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>22333</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>41213</v>
       </c>
@@ -9022,7 +9022,7 @@
         <v>8859</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>41243</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>41274</v>
       </c>
@@ -9056,7 +9056,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>41305</v>
       </c>
@@ -9073,7 +9073,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>41333</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>41364</v>
       </c>
@@ -9107,7 +9107,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>41394</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>41425</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>41455</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>13294</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>41486</v>
       </c>
@@ -9175,7 +9175,7 @@
         <v>3729</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>41517</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>11331</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>41547</v>
       </c>
@@ -9209,7 +9209,7 @@
         <v>9441</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>41578</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>8238</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>41608</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>41639</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>41670</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>41698</v>
       </c>
@@ -9294,7 +9294,7 @@
         <v>14464</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>41729</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>14741</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>41759</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>41790</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>41820</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>4014</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>41851</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>9912</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>41882</v>
       </c>
@@ -9396,7 +9396,7 @@
         <v>8954</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>41912</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>26467</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>41943</v>
       </c>
@@ -9430,7 +9430,7 @@
         <v>23522</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>41973</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>8524</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>42004</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>42035</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>42063</v>
       </c>
@@ -9498,7 +9498,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>42094</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>42124</v>
       </c>
@@ -9532,7 +9532,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>42155</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>42185</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>42216</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>10190</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>42247</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>26467</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>42277</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>64080</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>42308</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>57796</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>42338</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>7707</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>42369</v>
       </c>
@@ -9668,7 +9668,7 @@
         <v>3086</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>42400</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>3296</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>42429</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>42460</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>42490</v>
       </c>
@@ -9736,7 +9736,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>42521</v>
       </c>
@@ -9753,7 +9753,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>42551</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>42582</v>
       </c>
@@ -9787,7 +9787,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>42613</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>5941</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>42643</v>
       </c>
@@ -9821,7 +9821,7 @@
         <v>3482</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>42674</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>42704</v>
       </c>
@@ -9855,7 +9855,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>42735</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>42766</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>42794</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>42825</v>
       </c>
@@ -9923,7 +9923,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>42855</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>42886</v>
       </c>
@@ -9957,7 +9957,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>42916</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>42947</v>
       </c>
@@ -9991,7 +9991,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>42978</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>43008</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>43039</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>2810</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>43069</v>
       </c>
@@ -10059,7 +10059,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>43100</v>
       </c>
@@ -10076,7 +10076,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>43131</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>43159</v>
       </c>
@@ -10110,7 +10110,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>43190</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>43220</v>
       </c>
@@ -10144,7 +10144,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>43251</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>43281</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>43312</v>
       </c>
@@ -10195,7 +10195,7 @@
         <v>3292</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>43343</v>
       </c>
@@ -10212,7 +10212,7 @@
         <v>10970</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>43373</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>43404</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>7304</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>43434</v>
       </c>
@@ -10263,7 +10263,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>43465</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>43496</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>43524</v>
       </c>
@@ -10314,7 +10314,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>43555</v>
       </c>
@@ -10331,7 +10331,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>43585</v>
       </c>
@@ -10348,7 +10348,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>43616</v>
       </c>
@@ -10365,7 +10365,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>43646</v>
       </c>
@@ -10382,7 +10382,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>43677</v>
       </c>
@@ -10399,7 +10399,7 @@
         <v>3261</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>43708</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>13177</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>43738</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>42474</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>43769</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>15422</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>43799</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>7741</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>43830</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>43861</v>
       </c>
@@ -10501,7 +10501,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>43890</v>
       </c>
@@ -10518,7 +10518,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>43921</v>
       </c>
@@ -10535,7 +10535,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>43951</v>
       </c>
@@ -10552,7 +10552,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>43982</v>
       </c>
@@ -10569,7 +10569,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>44012</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>44043</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>44074</v>
       </c>
@@ -10624,7 +10624,7 @@
       <c r="J237" s="7"/>
       <c r="K237" s="7"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>44104</v>
       </c>
@@ -10645,7 +10645,7 @@
       <c r="J238" s="7"/>
       <c r="K238" s="7"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>44135</v>
       </c>
@@ -10665,7 +10665,7 @@
       <c r="J239" s="7"/>
       <c r="K239" s="7"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -10675,7 +10675,7 @@
       <c r="J240" s="7"/>
       <c r="K240" s="7"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -10686,20 +10686,20 @@
       <c r="J241" s="7"/>
       <c r="K241" s="7"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B242" s="8"/>
       <c r="H242" s="7"/>
       <c r="I242" s="7"/>
       <c r="J242" s="7"/>
       <c r="K242" s="7"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H243" s="7"/>
       <c r="I243" s="7"/>
       <c r="J243" s="7"/>
       <c r="K243" s="7"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H244" s="7"/>
       <c r="I244" s="7"/>
       <c r="J244" s="7"/>
